--- a/WorkBot/main/backend/ordering/OrderFiles/Equal Exchange/Equal Exchange_Triphammer_20250704.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Equal Exchange/Equal Exchange_Triphammer_20250704.xlsx
@@ -451,270 +451,270 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>40301</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14x5 PBVSA Filter</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10034</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Equal Exchange - Black Silk Espresso</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>77.50</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>155.00</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10025</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Equal Exchange - Breakfast Blend, Decaf</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10403</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Equal Exchange - Cold Brew</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>77.50</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>155.00</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17009</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Equal Exchange - Ethiopean (12oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49.50</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17003</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Equal Exchange - French Roast 10oz</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>53.10</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>53.10</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17013</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Equal Exchange - Love Buzz 12 oz</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>49.50</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>17005</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Equal Exchange - Mind, Body (10oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>53.10</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>106.20</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10400</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Equal Exchange - One World</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>77.50</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>387.50</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13308</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tea Bags - Rooibos (Equal Exchange)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>115.20</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
